--- a/data/trans_camb/P15_5-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P15_5-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,22</t>
+          <t>10,07</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-20,42</t>
+          <t>-25,83</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-29,18</t>
+          <t>-37,55</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,48</t>
+          <t>9,15</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-13,83</t>
+          <t>-15,26</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-29,17</t>
+          <t>-34,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,89</t>
+          <t>9,57</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-16,86</t>
+          <t>-20,17</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-29,2</t>
+          <t>-35,68</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,68; 16,95</t>
+          <t>0,63; 19,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-29,15; -11,32</t>
+          <t>-37,9; -13,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-37,98; -17,49</t>
+          <t>-49,05; -21,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,49; 17,38</t>
+          <t>0,68; 17,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-20,67; -6,03</t>
+          <t>-25,27; -6,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-36,87; -18,38</t>
+          <t>-43,66; -24,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,02; 14,52</t>
+          <t>3,42; 15,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-22,63; -11,06</t>
+          <t>-27,84; -12,74</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-35,43; -22,35</t>
+          <t>-43,73; -26,86</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>14,21%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-28,75%</t>
+          <t>-36,46%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-41,08%</t>
+          <t>-53,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,48%</t>
+          <t>13,15%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-19,11%</t>
+          <t>-21,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-40,32%</t>
+          <t>-48,83%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>13,79%</t>
+          <t>13,64%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-23,49%</t>
+          <t>-28,74%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-40,7%</t>
+          <t>-50,84%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,4; 25,49</t>
+          <t>0,55; 29,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-39,31; -16,64</t>
+          <t>-50,99; -21,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-51,66; -26,13</t>
+          <t>-66,03; -31,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,91; 25,33</t>
+          <t>0,87; 27,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-27,44; -8,59</t>
+          <t>-34,85; -9,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-49,48; -26,38</t>
+          <t>-59,17; -35,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,61; 20,76</t>
+          <t>4,57; 23,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-30,6; -15,63</t>
+          <t>-38,58; -18,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-47,77; -31,22</t>
+          <t>-60,33; -39,36</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,73</t>
+          <t>7,13</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-22,76</t>
+          <t>-22,51</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-46,56</t>
+          <t>-49,33</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,69</t>
+          <t>6,91</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-26,98</t>
+          <t>-27,92</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-42,54</t>
+          <t>-40,49</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,15</t>
+          <t>7,03</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-25,01</t>
+          <t>-25,36</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-44,66</t>
+          <t>-44,92</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 12,91</t>
+          <t>-1,5; 16,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-31,46; -13,45</t>
+          <t>-33,86; -11,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-55,63; -37,61</t>
+          <t>-60,31; -39,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 10,78</t>
+          <t>-0,92; 14,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-34,78; -19,12</t>
+          <t>-37,13; -18,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-50,01; -34,38</t>
+          <t>-50,47; -30,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 9,45</t>
+          <t>1,35; 12,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-30,93; -19,23</t>
+          <t>-32,93; -17,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-51,02; -39,13</t>
+          <t>-52,81; -37,94</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-28,44%</t>
+          <t>-28,36%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-58,17%</t>
+          <t>-62,16%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-32,13%</t>
+          <t>-33,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-50,67%</t>
+          <t>-48,78%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-30,45%</t>
+          <t>-31,19%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-54,37%</t>
+          <t>-55,25%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 16,97</t>
+          <t>-1,78; 22,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-38,14; -17,24</t>
+          <t>-40,95; -15,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-67,47; -47,95</t>
+          <t>-73,43; -51,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 13,92</t>
+          <t>-0,93; 18,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-40,46; -23,51</t>
+          <t>-43,33; -23,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-58,55; -42,34</t>
+          <t>-58,94; -38,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,45; 11,84</t>
+          <t>1,53; 16,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-37,14; -24,09</t>
+          <t>-39,25; -21,8</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-61,07; -48,7</t>
+          <t>-63,61; -47,72</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>13,12</t>
+          <t>19,34</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-18,16</t>
+          <t>-7,13</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-34,05</t>
+          <t>-24,79</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,72</t>
+          <t>11,79</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-22,57</t>
+          <t>-14,26</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-38,73</t>
+          <t>-36,67</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>10,56</t>
+          <t>15,62</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-20,25</t>
+          <t>-10,62</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-36,26</t>
+          <t>-30,64</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 28,82</t>
+          <t>-6,27; 42,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-36,7; 2,59</t>
+          <t>-37,46; 23,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-52,92; -10,03</t>
+          <t>-57,32; 12,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 21,14</t>
+          <t>-3,53; 26,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-39,58; -7,06</t>
+          <t>-34,67; 4,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-53,66; -22,31</t>
+          <t>-57,69; -13,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 20,34</t>
+          <t>2,43; 30,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-33,87; -7,72</t>
+          <t>-28,69; 9,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-49,26; -22,08</t>
+          <t>-49,27; -6,54</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>17,5%</t>
+          <t>27,17%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-24,23%</t>
+          <t>-10,02%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-45,43%</t>
+          <t>-34,82%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>14,7%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-28,68%</t>
+          <t>-17,78%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-49,21%</t>
+          <t>-45,74%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>13,76%</t>
+          <t>20,66%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-26,39%</t>
+          <t>-14,05%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-47,26%</t>
+          <t>-40,52%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 46,15</t>
+          <t>-7,63; 82,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-46,06; 3,56</t>
+          <t>-48,21; 44,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-65,99; -14,68</t>
+          <t>-72,55; 27,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 29,69</t>
+          <t>-3,86; 39,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-47,02; -9,77</t>
+          <t>-39,75; 6,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-65,46; -31,61</t>
+          <t>-66,6; -19,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 28,66</t>
+          <t>2,76; 47,73</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-41,97; -10,95</t>
+          <t>-35,35; 13,52</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-61,55; -30,58</t>
+          <t>-62,02; -9,41</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,35</t>
+          <t>9,94</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-20,95</t>
+          <t>-22,39</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-36,69</t>
+          <t>-40,94</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,91</t>
+          <t>8,62</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-19,93</t>
+          <t>-20,25</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-35,45</t>
+          <t>-36,82</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,11</t>
+          <t>9,23</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-20,44</t>
+          <t>-21,29</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-36,12</t>
+          <t>-38,87</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,58; 13,45</t>
+          <t>3,14; 16,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-26,78; -15,4</t>
+          <t>-31,17; -13,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-42,6; -30,14</t>
+          <t>-49,14; -29,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,54; 12,03</t>
+          <t>3,12; 14,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-24,94; -14,7</t>
+          <t>-26,29; -13,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-40,61; -28,44</t>
+          <t>-42,9; -29,81</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,69; 11,38</t>
+          <t>5,29; 13,91</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-24,52; -16,48</t>
+          <t>-26,77; -16,34</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-40,22; -31,0</t>
+          <t>-43,44; -32,36</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-27,92%</t>
+          <t>-30,12%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-48,89%</t>
+          <t>-55,08%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>11,33%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-25,68%</t>
+          <t>-26,64%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-45,68%</t>
+          <t>-48,42%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>12,27%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-26,76%</t>
+          <t>-28,29%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-47,27%</t>
+          <t>-51,67%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,65; 18,69</t>
+          <t>3,96; 23,33</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-34,91; -21,17</t>
+          <t>-40,68; -18,81</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-55,87; -40,92</t>
+          <t>-64,01; -41,63</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,47; 16,06</t>
+          <t>3,96; 19,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-31,65; -19,57</t>
+          <t>-33,83; -18,79</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-51,45; -37,52</t>
+          <t>-54,94; -40,52</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,96; 15,26</t>
+          <t>6,9; 19,4</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-31,57; -21,92</t>
+          <t>-34,69; -22,22</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-51,98; -41,35</t>
+          <t>-56,87; -44,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
